--- a/Music/Guitar/P4/4-finger patterns.xlsx
+++ b/Music/Guitar/P4/4-finger patterns.xlsx
@@ -1,21 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="25705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://www.dropbox.com/8104752/Stuff/test files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{1F9EF777-7018-BF48-8338-64F0ACCEDCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="11360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6400" windowHeight="11360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="158000" concurrentCalc="0"/>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +34,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -65,6 +75,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -332,16 +345,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="C5:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="2.95703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>